--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Used to indicate that all PCO observations of of type Survey</t>
+    <t>Used to indicate that PCO observations of of type Survey, as defined by US-Core.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-survey-category-vs.xlsx
+++ b/ValueSet-pco-survey-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
